--- a/Experiments/Finetuning.xlsx
+++ b/Experiments/Finetuning.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765BF19-955C-E34C-BD30-E8E191AB5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900CE5C-BFD5-6448-9C97-7A3941F6797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17080" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17000" activeTab="1" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bozza5" sheetId="4" r:id="rId1"/>
+    <sheet name="Bozza5Reducted0.25" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="126">
   <si>
     <t>Starting Point</t>
   </si>
@@ -152,14 +153,275 @@
     <t>RoverDataset_AugNoEncoder_1</t>
   </si>
   <si>
-    <t>Dataset</t>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>0.890</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.800</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>0.924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,14 +450,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +476,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -217,26 +503,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -570,11 +1062,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6296-2B05-0C45-B8A4-1E134344FBAA}">
+  <dimension ref="A1:AC41"/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="32"/>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="33">
+        <v>300</v>
+      </c>
+      <c r="D3" s="33">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>32</v>
+      </c>
+      <c r="F3" s="33">
+        <v>100</v>
+      </c>
+      <c r="G3" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="35" t="str">
+        <f>A3</f>
+        <v>BDD100k_NoAugEncoder_1</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="33">
+        <v>300</v>
+      </c>
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33">
+        <v>32</v>
+      </c>
+      <c r="F4" s="33">
+        <v>100</v>
+      </c>
+      <c r="G4" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="35" t="str">
+        <f t="shared" ref="L4:L13" si="0">A4</f>
+        <v>BDD100k_AugEncoder_1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="33">
+        <v>300</v>
+      </c>
+      <c r="D5" s="33">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33">
+        <v>32</v>
+      </c>
+      <c r="F5" s="33">
+        <v>100</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33">
+        <v>300</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33">
+        <v>32</v>
+      </c>
+      <c r="F6" s="33">
+        <v>100</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_AugNoEncoder_1</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="33">
+        <v>300</v>
+      </c>
+      <c r="D7" s="33">
+        <v>10</v>
+      </c>
+      <c r="E7" s="33">
+        <v>32</v>
+      </c>
+      <c r="F7" s="33">
+        <v>100</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugEncoder_1</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="33">
+        <v>300</v>
+      </c>
+      <c r="D8" s="33">
+        <v>10</v>
+      </c>
+      <c r="E8" s="33">
+        <v>32</v>
+      </c>
+      <c r="F8" s="33">
+        <v>100</v>
+      </c>
+      <c r="G8" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugEncoder_1</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33">
+        <v>300</v>
+      </c>
+      <c r="D9" s="33">
+        <v>10</v>
+      </c>
+      <c r="E9" s="33">
+        <v>32</v>
+      </c>
+      <c r="F9" s="33">
+        <v>100</v>
+      </c>
+      <c r="G9" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="33">
+        <v>300</v>
+      </c>
+      <c r="D10" s="33">
+        <v>10</v>
+      </c>
+      <c r="E10" s="33">
+        <v>32</v>
+      </c>
+      <c r="F10" s="33">
+        <v>100</v>
+      </c>
+      <c r="G10" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugNoEncoder_1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="33">
+        <v>300</v>
+      </c>
+      <c r="D11" s="33">
+        <v>10</v>
+      </c>
+      <c r="E11" s="33">
+        <v>32</v>
+      </c>
+      <c r="F11" s="33">
+        <v>100</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugEncoder_1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="33">
+        <v>300</v>
+      </c>
+      <c r="D12" s="33">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33">
+        <v>32</v>
+      </c>
+      <c r="F12" s="33">
+        <v>100</v>
+      </c>
+      <c r="G12" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_AugEncoder_1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33">
+        <v>300</v>
+      </c>
+      <c r="D13" s="33">
+        <v>10</v>
+      </c>
+      <c r="E13" s="33">
+        <v>32</v>
+      </c>
+      <c r="F13" s="33">
+        <v>100</v>
+      </c>
+      <c r="G13" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12">
+        <v>300</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100</v>
+      </c>
+      <c r="G14" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="36" t="str">
+        <f>A14</f>
+        <v>RoverDataset_AugNoEncoder_1</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A9A89A-AE6F-F44E-B251-771E760A98A8}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -588,474 +2110,1406 @@
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="41" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="41" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="14.83203125" customWidth="1"/>
     <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="M1" s="6" t="s">
+    <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="32"/>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="33">
+        <v>300</v>
+      </c>
+      <c r="D3" s="33">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>32</v>
+      </c>
+      <c r="F3" s="33">
+        <v>100</v>
+      </c>
+      <c r="G3" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="14" t="str">
+        <f>A3</f>
+        <v>BDD100k_NoAugEncoder_1</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="33">
         <v>300</v>
       </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33">
+        <v>32</v>
+      </c>
+      <c r="F4" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="27" t="str">
+        <f t="shared" ref="L4:L13" si="0">A4</f>
+        <v>BDD100k_AugEncoder_1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="33">
+        <v>300</v>
+      </c>
+      <c r="D5" s="33">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33">
+        <v>32</v>
+      </c>
+      <c r="F5" s="33">
+        <v>100</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33">
+        <v>300</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33">
+        <v>32</v>
+      </c>
+      <c r="F6" s="33">
+        <v>100</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="I6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_AugNoEncoder_1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="33">
         <v>300</v>
       </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D7" s="33">
+        <v>10</v>
+      </c>
+      <c r="E7" s="33">
+        <v>32</v>
+      </c>
+      <c r="F7" s="33">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G7" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="L7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugEncoder_1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="33">
+        <v>300</v>
+      </c>
+      <c r="D8" s="33">
+        <v>10</v>
+      </c>
+      <c r="E8" s="33">
+        <v>32</v>
+      </c>
+      <c r="F8" s="33">
+        <v>100</v>
+      </c>
+      <c r="G8" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="I8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugEncoder_1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33">
+        <v>300</v>
+      </c>
+      <c r="D9" s="33">
+        <v>10</v>
+      </c>
+      <c r="E9" s="33">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="F9" s="33">
+        <v>100</v>
+      </c>
+      <c r="G9" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="33">
         <v>300</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D10" s="33">
+        <v>10</v>
+      </c>
+      <c r="E10" s="33">
+        <v>32</v>
+      </c>
+      <c r="F10" s="33">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G10" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="L10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugNoEncoder_1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="33">
+        <v>300</v>
+      </c>
+      <c r="D11" s="33">
+        <v>10</v>
+      </c>
+      <c r="E11" s="33">
+        <v>32</v>
+      </c>
+      <c r="F11" s="33">
+        <v>100</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="I11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugEncoder_1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="33">
         <v>300</v>
       </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D12" s="33">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33">
+        <v>32</v>
+      </c>
+      <c r="F12" s="33">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G12" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_AugEncoder_1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33">
+        <v>300</v>
+      </c>
+      <c r="D13" s="33">
+        <v>10</v>
+      </c>
+      <c r="E13" s="33">
+        <v>32</v>
+      </c>
+      <c r="F13" s="33">
+        <v>100</v>
+      </c>
+      <c r="G13" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="I13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12">
         <v>300</v>
       </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
         <v>100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G14" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>300</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>300</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>300</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>300</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>300</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>100</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>300</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>100</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1">
-        <v>300</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>100</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L14" s="15" t="str">
+        <f>A14</f>
+        <v>RoverDataset_AugNoEncoder_1</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="22:29" x14ac:dyDescent="0.35">
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="M1:T1"/>
-    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments/Finetuning.xlsx
+++ b/Experiments/Finetuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900CE5C-BFD5-6448-9C97-7A3941F6797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C596EC-2DCA-CD4A-AD35-5C8DB6B393AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17000" activeTab="1" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="8460" yWindow="740" windowWidth="21780" windowHeight="18900" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
     <sheet name="Bozza5" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="237">
   <si>
     <t>Starting Point</t>
   </si>
@@ -415,6 +415,339 @@
   </si>
   <si>
     <t>0.924</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>0.906</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.870</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>0.871</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.526</t>
   </si>
 </sst>
 </file>
@@ -663,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -675,8 +1008,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -716,6 +1047,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,10 +1071,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1065,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6296-2B05-0C45-B8A4-1E134344FBAA}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -1089,113 +1435,114 @@
     <col min="18" max="18" width="14.83203125" customWidth="1"/>
     <col min="19" max="19" width="13.5" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="30" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1203,613 +1550,1009 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="1">
         <v>300</v>
       </c>
-      <c r="D3" s="33">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="35" t="str">
+      <c r="L3" s="12" t="str">
         <f>A3</f>
         <v>BDD100k_NoAugEncoder_1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="6"/>
+      <c r="M3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="1">
         <v>300</v>
       </c>
-      <c r="D4" s="33">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="35" t="str">
+      <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L13" si="0">A4</f>
         <v>BDD100k_AugEncoder_1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="11"/>
+      <c r="M4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="1">
         <v>300</v>
       </c>
-      <c r="D5" s="33">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>32</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="35" t="str">
+      <c r="L5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>BDD100k_NoAugNoEncoder_1</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="1">
         <v>300</v>
       </c>
-      <c r="D6" s="33">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>32</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="35" t="str">
+      <c r="L6" s="29" t="str">
         <f t="shared" si="0"/>
         <v>BDD100k_AugNoEncoder_1</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="6"/>
+      <c r="M6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="1">
         <v>300</v>
       </c>
-      <c r="D7" s="33">
-        <v>10</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="35" t="str">
+      <c r="L7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_NoAugEncoder_1</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="6"/>
+      <c r="M7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="1">
         <v>300</v>
       </c>
-      <c r="D8" s="33">
-        <v>10</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>32</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="35" t="str">
+      <c r="L8" s="29" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_AugEncoder_1</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="11"/>
+      <c r="M8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" s="31" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="1">
         <v>300</v>
       </c>
-      <c r="D9" s="33">
-        <v>10</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
         <v>32</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="35" t="str">
+      <c r="L9" s="29" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_NoAugNoEncoder_1</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="6"/>
+      <c r="M9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="1">
         <v>300</v>
       </c>
-      <c r="D10" s="33">
-        <v>10</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>32</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="35" t="str">
+      <c r="L10" s="29" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_AugNoEncoder_1</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="AB10" s="8"/>
+      <c r="M10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="1">
         <v>300</v>
       </c>
-      <c r="D11" s="33">
-        <v>10</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>32</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="35" t="str">
+      <c r="L11" s="29" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_NoAugEncoder_1</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11"/>
+      <c r="M11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB11" s="31" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="1">
         <v>300</v>
       </c>
-      <c r="D12" s="33">
-        <v>10</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
         <v>32</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="35" t="str">
+      <c r="L12" s="29" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_AugEncoder_1</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="6"/>
+      <c r="M12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB12" s="31" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="1">
         <v>300</v>
       </c>
-      <c r="D13" s="33">
-        <v>10</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
         <v>32</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="35" t="str">
+      <c r="L13" s="29" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_NoAugNoEncoder_1</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="6"/>
+      <c r="M13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB13" s="31" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>300</v>
       </c>
-      <c r="D14" s="12">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
         <v>32</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>100</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="36" t="str">
+      <c r="L14" s="13" t="str">
         <f>A14</f>
         <v>RoverDataset_AugNoEncoder_1</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="13"/>
+      <c r="M14" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA14" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB14" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
@@ -2095,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A9A89A-AE6F-F44E-B251-771E760A98A8}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="60" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2124,108 +2867,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="30" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2233,34 +2976,34 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="1">
         <v>300</v>
       </c>
-      <c r="D3" s="33">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="14" t="str">
+      <c r="L3" s="12" t="str">
         <f>A3</f>
         <v>BDD100k_NoAugEncoder_1</v>
       </c>
@@ -2317,34 +3060,34 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="1">
         <v>300</v>
       </c>
-      <c r="D4" s="33">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="27" t="str">
+      <c r="L4" s="25" t="str">
         <f t="shared" ref="L4:L13" si="0">A4</f>
         <v>BDD100k_AugEncoder_1</v>
       </c>
@@ -2372,7 +3115,7 @@
       <c r="T4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -2384,16 +3127,16 @@
       <c r="X4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="8" t="s">
         <v>89</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2401,34 +3144,34 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="1">
         <v>300</v>
       </c>
-      <c r="D5" s="33">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>32</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BDD100k_NoAugNoEncoder_1</v>
       </c>
@@ -2485,34 +3228,34 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="1">
         <v>300</v>
       </c>
-      <c r="D6" s="33">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>32</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BDD100k_AugNoEncoder_1</v>
       </c>
@@ -2569,34 +3312,34 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="1">
         <v>300</v>
       </c>
-      <c r="D7" s="33">
-        <v>10</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="14" t="str">
+      <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_NoAugEncoder_1</v>
       </c>
@@ -2653,34 +3396,34 @@
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="1">
         <v>300</v>
       </c>
-      <c r="D8" s="33">
-        <v>10</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>32</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="L8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_AugEncoder_1</v>
       </c>
@@ -2708,28 +3451,28 @@
       <c r="T8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" s="8" t="s">
         <v>89</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2737,34 +3480,34 @@
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="1">
         <v>300</v>
       </c>
-      <c r="D9" s="33">
-        <v>10</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
         <v>32</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="14" t="str">
+      <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_NoAugNoEncoder_1</v>
       </c>
@@ -2821,34 +3564,34 @@
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="1">
         <v>300</v>
       </c>
-      <c r="D10" s="33">
-        <v>10</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>32</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="14" t="str">
+      <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ORFD_AugNoEncoder_1</v>
       </c>
@@ -2874,28 +3617,28 @@
       <c r="T10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="8" t="s">
         <v>94</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Z10" s="8" t="s">
         <v>89</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2903,34 +3646,34 @@
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="1">
         <v>300</v>
       </c>
-      <c r="D11" s="33">
-        <v>10</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>32</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="29" t="str">
+      <c r="L11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_NoAugEncoder_1</v>
       </c>
@@ -2958,28 +3701,28 @@
       <c r="T11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2987,34 +3730,34 @@
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="1">
         <v>300</v>
       </c>
-      <c r="D12" s="33">
-        <v>10</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
         <v>32</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="14" t="str">
+      <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_AugEncoder_1</v>
       </c>
@@ -3071,34 +3814,34 @@
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="1">
         <v>300</v>
       </c>
-      <c r="D13" s="33">
-        <v>10</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
         <v>32</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="14" t="str">
+      <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>RoverDataset_NoAugNoEncoder_1</v>
       </c>
@@ -3152,86 +3895,86 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>300</v>
       </c>
-      <c r="D14" s="12">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
         <v>32</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>100</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="15" t="str">
+      <c r="L14" s="13" t="str">
         <f>A14</f>
         <v>RoverDataset_AugNoEncoder_1</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="U14" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="W14" s="12" t="s">
+      <c r="W14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="X14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Y14" s="12" t="s">
+      <c r="Y14" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="12" t="s">
+      <c r="Z14" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AA14" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AB14" s="11" t="s">
         <v>118</v>
       </c>
       <c r="AC14" s="1"/>

--- a/Experiments/Finetuning.xlsx
+++ b/Experiments/Finetuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C596EC-2DCA-CD4A-AD35-5C8DB6B393AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAA432-0FC8-9B4C-BB1C-9893243F1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="740" windowWidth="21780" windowHeight="18900" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
     <sheet name="Bozza5" sheetId="4" r:id="rId1"/>
@@ -34,6 +34,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C6601D38-49AB-7046-BD20-AE90C151C24D}</author>
+    <author>tc={ED055890-94DA-144E-8EB2-5C366FEF1300}</author>
+  </authors>
+  <commentList>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{C6601D38-49AB-7046-BD20-AE90C151C24D}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+: Precisione alta indica che i pixel classificati come navigabili sono in gran parte corretti, riducendo il rischio di falsi positivi (ad esempio, classificare erroneamente un'area non navigabile come navigabile).</t>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="1" shapeId="0" xr:uid="{ED055890-94DA-144E-8EB2-5C366FEF1300}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+Recall alto indica che il modello riesce a identificare correttamente la maggior parte delle aree navigabili, riducendo i falsi negativi (cioè, evitare di ignorare zone navigabili).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,6 +1089,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,10 +1100,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1090,6 +1115,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="CRISTIAN CERASUOLO" id="{7BACF07A-4DFA-464C-872B-3C3D7CD17655}" userId="S::c.cerasuolo2@studenti.unisa.it::16803648-e393-4c37-a3f8-82509b9b21cd" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1407,12 +1438,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W2" dT="2024-11-24T14:37:06.95" personId="{7BACF07A-4DFA-464C-872B-3C3D7CD17655}" id="{C6601D38-49AB-7046-BD20-AE90C151C24D}">
+    <text>: Precisione alta indica che i pixel classificati come navigabili sono in gran parte corretti, riducendo il rischio di falsi positivi (ad esempio, classificare erroneamente un'area non navigabile come navigabile).</text>
+  </threadedComment>
+  <threadedComment ref="X2" dT="2024-11-24T14:36:52.87" personId="{7BACF07A-4DFA-464C-872B-3C3D7CD17655}" id="{ED055890-94DA-144E-8EB2-5C366FEF1300}">
+    <text>Recall alto indica che il modello riesce a identificare correttamente la maggior parte delle aree navigabili, riducendo i falsi negativi (cioè, evitare di ignorare zone navigabili).</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6296-2B05-0C45-B8A4-1E134344FBAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6296-2B05-0C45-B8A4-1E134344FBAA}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -1432,35 +1474,38 @@
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
     <col min="22" max="22" width="15.6640625" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="43"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="45"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1527,7 +1572,7 @@
       <c r="V2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="X2" s="20" t="s">
@@ -1602,7 +1647,7 @@
       <c r="S3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="41" t="s">
         <v>132</v>
       </c>
       <c r="U3" s="33" t="s">
@@ -1668,22 +1713,22 @@
       <c r="M4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="T4" s="6" t="s">
@@ -1752,22 +1797,22 @@
       <c r="M5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="1" t="s">
         <v>158</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -1836,22 +1881,22 @@
       <c r="M6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="1" t="s">
         <v>173</v>
       </c>
       <c r="T6" s="6" t="s">
@@ -1920,22 +1965,22 @@
       <c r="M7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="T7" s="6" t="s">
@@ -2004,22 +2049,22 @@
       <c r="M8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="T8" s="6" t="s">
@@ -2088,22 +2133,22 @@
       <c r="M9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="1" t="s">
         <v>200</v>
       </c>
       <c r="T9" s="6" t="s">
@@ -2172,22 +2217,22 @@
       <c r="M10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N10" s="45" t="s">
+      <c r="N10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="1" t="s">
         <v>185</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -2256,22 +2301,22 @@
       <c r="M11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="T11" s="6" t="s">
@@ -2340,22 +2385,22 @@
       <c r="M12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="45" t="s">
+      <c r="N12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q12" s="45" t="s">
+      <c r="Q12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T12" s="6" t="s">
@@ -2424,22 +2469,22 @@
       <c r="M13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q13" s="45" t="s">
+      <c r="Q13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="1" t="s">
         <v>211</v>
       </c>
       <c r="T13" s="6" t="s">
@@ -2831,6 +2876,7 @@
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2867,26 +2913,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="43"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="45"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">

--- a/Experiments/Finetuning.xlsx
+++ b/Experiments/Finetuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAA432-0FC8-9B4C-BB1C-9893243F1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5FCE5-126E-824C-AEDF-207A607B02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="20" yWindow="780" windowWidth="30240" windowHeight="17140" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
     <sheet name="Bozza5" sheetId="4" r:id="rId1"/>

--- a/Experiments/Finetuning.xlsx
+++ b/Experiments/Finetuning.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5FCE5-126E-824C-AEDF-207A607B02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8847797-28EC-0D4F-B365-951982002728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="780" windowWidth="30240" windowHeight="17140" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="7000" yWindow="2460" windowWidth="16620" windowHeight="17140" activeTab="1" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bozza5" sheetId="4" r:id="rId1"/>
-    <sheet name="Bozza5Reducted0.25" sheetId="1" r:id="rId2"/>
+    <sheet name="V5" sheetId="4" r:id="rId1"/>
+    <sheet name="V6" sheetId="5" r:id="rId2"/>
+    <sheet name="V5 25%" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,8 +64,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9084E8D6-D9BB-0445-96BA-7DC60752A990}</author>
+    <author>tc={736E1AAE-15FC-4049-9074-51EFA3F99629}</author>
+  </authors>
+  <commentList>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{9084E8D6-D9BB-0445-96BA-7DC60752A990}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+: Precisione alta indica che i pixel classificati come navigabili sono in gran parte corretti, riducendo il rischio di falsi positivi (ad esempio, classificare erroneamente un'area non navigabile come navigabile).</t>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="1" shapeId="0" xr:uid="{736E1AAE-15FC-4049-9074-51EFA3F99629}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+Recall alto indica che il modello riesce a identificare correttamente la maggior parte delle aree navigabili, riducendo i falsi negativi (cioè, evitare di ignorare zone navigabili).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="269">
   <si>
     <t>Starting Point</t>
   </si>
@@ -775,6 +803,102 @@
   </si>
   <si>
     <t>0.526</t>
+  </si>
+  <si>
+    <t>BDD100k_AugNoEncoder_1 (wip)</t>
+  </si>
+  <si>
+    <t>0.0605</t>
+  </si>
+  <si>
+    <t>0.0188</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.0190</t>
+  </si>
+  <si>
+    <t>0.0183</t>
+  </si>
+  <si>
+    <t>0.1141</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.9865</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.9867</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.9088</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.9862</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.9825</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>0.8182</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.8992</t>
+  </si>
+  <si>
+    <t>0.0628</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>0.921</t>
   </si>
 </sst>
 </file>
@@ -823,7 +947,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1091,6 +1221,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,6 +1231,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1449,12 +1583,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W2" dT="2024-11-24T14:37:06.95" personId="{7BACF07A-4DFA-464C-872B-3C3D7CD17655}" id="{9084E8D6-D9BB-0445-96BA-7DC60752A990}">
+    <text>: Precisione alta indica che i pixel classificati come navigabili sono in gran parte corretti, riducendo il rischio di falsi positivi (ad esempio, classificare erroneamente un'area non navigabile come navigabile).</text>
+  </threadedComment>
+  <threadedComment ref="X2" dT="2024-11-24T14:36:52.87" personId="{7BACF07A-4DFA-464C-872B-3C3D7CD17655}" id="{736E1AAE-15FC-4049-9074-51EFA3F99629}">
+    <text>Recall alto indica che il modello riesce a identificare correttamente la maggior parte delle aree navigabili, riducendo i falsi negativi (cioè, evitare di ignorare zone navigabili).</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6296-2B05-0C45-B8A4-1E134344FBAA}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -1486,26 +1631,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="43" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2881,11 +3026,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5A1156-D9B5-9D41-955B-9AEE2C8E83B3}">
+  <dimension ref="A1:AB14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
+    </row>
+    <row r="2" spans="1:28" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12" t="str">
+        <f>A3</f>
+        <v>BDD100k_NoAugEncoder_1</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L13" si="0">A4</f>
+        <v>BDD100k_AugEncoder_1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BDD100k_AugNoEncoder_1 (wip)</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugEncoder_1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugEncoder_1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ORFD_AugNoEncoder_1</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="31"/>
+    </row>
+    <row r="11" spans="1:28" ht="27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>300</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugEncoder_1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="31"/>
+    </row>
+    <row r="12" spans="1:28" ht="27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_AugEncoder_1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="31"/>
+    </row>
+    <row r="13" spans="1:28" ht="27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>300</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>RoverDataset_NoAugNoEncoder_1</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="31"/>
+    </row>
+    <row r="14" spans="1:28" ht="28" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10">
+        <v>300</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>64</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100</v>
+      </c>
+      <c r="G14" s="24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="13" t="str">
+        <f>A14</f>
+        <v>RoverDataset_AugNoEncoder_1</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A9A89A-AE6F-F44E-B251-771E760A98A8}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -2913,26 +4080,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="43" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
